--- a/input.xlsx
+++ b/input.xlsx
@@ -657,6 +657,7 @@
     <col min="1" max="1" width="120" customWidth="1"/>
     <col min="2" max="2" width="70" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/input.xlsx
+++ b/input.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t>Links</t>
   </si>
@@ -25,6 +25,237 @@
     <t>Country</t>
   </si>
   <si>
+    <t>Published Date</t>
+  </si>
+  <si>
+    <t>Closing Date</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43055482027?origin=0</t>
+  </si>
+  <si>
+    <t>canada day 2024 event planning and delivery</t>
+  </si>
+  <si>
+    <t>city of grand forks</t>
+  </si>
+  <si>
+    <t>british columbia, can</t>
+  </si>
+  <si>
+    <t>2024/03/06</t>
+  </si>
+  <si>
+    <t>2024/03/25</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/solicitations/open-bids/Professional-Services-Request-for-Building-Maintenance-Services/0000265837?origin=0</t>
+  </si>
+  <si>
+    <t>professional services request for building maintenance services</t>
+  </si>
+  <si>
+    <t>black and mcdonald</t>
+  </si>
+  <si>
+    <t>2024/03/05</t>
+  </si>
+  <si>
+    <t>2024/04/30</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054726496?origin=0</t>
+  </si>
+  <si>
+    <t>controls upgrade, court of king’s bench, prince albert, saskatchewan</t>
+  </si>
+  <si>
+    <t>saskbuilds and procurement - asset management</t>
+  </si>
+  <si>
+    <t>saskatchewan, can</t>
+  </si>
+  <si>
+    <t>2024/03/28</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054726493?origin=0</t>
+  </si>
+  <si>
+    <t>senior enterprise architect</t>
+  </si>
+  <si>
+    <t>saskatchewan workers' compensation board</t>
+  </si>
+  <si>
+    <t>2024/04/02</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054726473?origin=0</t>
+  </si>
+  <si>
+    <t>turtle lake lakeshore and watershed study proposal</t>
+  </si>
+  <si>
+    <t>rural municipality of mervin no. 499</t>
+  </si>
+  <si>
+    <t>2024/03/20</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054726466?origin=0</t>
+  </si>
+  <si>
+    <t>street sweeping tailings characterization project</t>
+  </si>
+  <si>
+    <t>city of saskatoon</t>
+  </si>
+  <si>
+    <t>2024/03/18</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/solicitations/open-bids/RFPI-984208-Replacement-of-Integrated-Nuclear-Materials-Accounting-System/0000265800?origin=0</t>
+  </si>
+  <si>
+    <t>rfpi#984208 - replacement of integrated nuclear materials accounting system</t>
+  </si>
+  <si>
+    <t>canadian nuclear laboratories ltd. (cnl)</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/oupma/solicitations/open-bids/24-006-Brand-Strategy-and-Visual-Identity-Development-Services/0000265794?origin=0</t>
+  </si>
+  <si>
+    <t>#24-006 brand strategy and visual identity development services</t>
+  </si>
+  <si>
+    <t>university of waterloo</t>
+  </si>
+  <si>
+    <t>ontario, can</t>
+  </si>
+  <si>
+    <t>2024/04/05</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/solicitations/open-bids/McCleary-District-Sustainability-Plan/0000265786?origin=0</t>
+  </si>
+  <si>
+    <t>mccleary district sustainability plan</t>
+  </si>
+  <si>
+    <t>waterfront toronto</t>
+  </si>
+  <si>
+    <t>toronto, on, can</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054590828?origin=0</t>
+  </si>
+  <si>
+    <t>customer surveys program</t>
+  </si>
+  <si>
+    <t>metro vancouver</t>
+  </si>
+  <si>
+    <t>2024/03/27</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054505146?origin=0</t>
+  </si>
+  <si>
+    <t>traffic data collection</t>
+  </si>
+  <si>
+    <t>norfolk county</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054505133?origin=0</t>
+  </si>
+  <si>
+    <t>2024 hydraulic analysis</t>
+  </si>
+  <si>
+    <t>chatham-kent</t>
+  </si>
+  <si>
+    <t>2024/03/22</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054257225?origin=0</t>
+  </si>
+  <si>
+    <t>electrical panels replacement</t>
+  </si>
+  <si>
+    <t>bgis - pwgsc rp1</t>
+  </si>
+  <si>
+    <t>the islands, bc, can</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054505115?origin=0</t>
+  </si>
+  <si>
+    <t>consulting services for compliance with the institute of internal auditors (‘iia’) international standards for the professional practice of internal auditing (‘standards’)</t>
+  </si>
+  <si>
+    <t>city of brampton</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/solicitations/open-bids/Contract-Management-Training/0000265768?origin=0</t>
+  </si>
+  <si>
+    <t>contract management training</t>
+  </si>
+  <si>
+    <t>independent electricity system operator</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054401194?origin=0</t>
+  </si>
+  <si>
+    <t>norm perry park master plan &amp; park design plan</t>
+  </si>
+  <si>
+    <t>city of sarnia</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054401192?origin=0</t>
+  </si>
+  <si>
+    <t>arena feasibility study</t>
+  </si>
+  <si>
+    <t>city of woodstock</t>
+  </si>
+  <si>
+    <t>kitchener-waterloo-barrie, on, can</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054401152?origin=0</t>
+  </si>
+  <si>
+    <t>provision of fire and life safety protection services for the region of peel’s long term care homes</t>
+  </si>
+  <si>
+    <t>region of peel</t>
+  </si>
+  <si>
+    <t>2024/03/26</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43054325043?origin=0</t>
+  </si>
+  <si>
+    <t>subsurface utility engineering investigation services for water/wastewater servicing in north and west bolton</t>
+  </si>
+  <si>
     <t>https://www.merx.com/public/supplier/interception/view-notice/43054100109?origin=0</t>
   </si>
   <si>
@@ -34,205 +265,10 @@
     <t>halton district school board</t>
   </si>
   <si>
-    <t>ontario, can</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053575009?origin=0</t>
-  </si>
-  <si>
-    <t>cultural funding review</t>
-  </si>
-  <si>
-    <t>regional district of fraser-fort george</t>
-  </si>
-  <si>
-    <t>british columbia, can</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053396144?origin=0</t>
-  </si>
-  <si>
-    <t>project: tender_19334 - cw16814 rfp for uxbridge redevelopment project commissioning agent</t>
-  </si>
-  <si>
-    <t>ontario shared services</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053396143?origin=0</t>
-  </si>
-  <si>
-    <t>ai artificial intelligence consulting services</t>
-  </si>
-  <si>
-    <t>worksafebc</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053396142?origin=0</t>
-  </si>
-  <si>
-    <t>water treatment plant - ultraviolet treatment design rfp #2024-01</t>
-  </si>
-  <si>
-    <t>village of kaslo</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053396140?origin=0</t>
-  </si>
-  <si>
-    <t>parksville mhsu wellness &amp; recovery centre - mechanical engineer</t>
-  </si>
-  <si>
-    <t>vancouver island health authority</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053396139?origin=0</t>
-  </si>
-  <si>
-    <t>parksville mhsu wellness &amp; recovery centre - electrical consultant</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053396138?origin=0</t>
-  </si>
-  <si>
-    <t>parksville mhsu wellness &amp; recovery centre - architect</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/solicitations/open-bids/NPP-RFP-24-800-Payroll-Services/0000265701?origin=0</t>
-  </si>
-  <si>
-    <t>npp - rfp 24-800 payroll services</t>
-  </si>
-  <si>
-    <t>export development canada - edc</t>
-  </si>
-  <si>
-    <t>ottawa, on, can</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053396119?origin=0</t>
-  </si>
-  <si>
-    <t>construction management services changeroom renovation – ballenas secondary school</t>
-  </si>
-  <si>
-    <t>school district 69 qualicum</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053396116?origin=0</t>
-  </si>
-  <si>
-    <t>rfq: parks after-hours security response service no. 2024-cs05</t>
-  </si>
-  <si>
-    <t>regional district of north okanagan</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053396115?origin=0</t>
-  </si>
-  <si>
-    <t>2024-ws-09 landfill feasibility study</t>
-  </si>
-  <si>
-    <t>regional district kitimat stikine</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/solicitations/open-bids/Notice-of-Intent-to-Post-RFP-for-Systems-Integrator-SI/0000265698?origin=0</t>
-  </si>
-  <si>
-    <t>notice of intent to post - rfp for systems integrator (si)</t>
-  </si>
-  <si>
-    <t>canadian wildlife federation</t>
-  </si>
-  <si>
-    <t>canada</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053396102?origin=0</t>
-  </si>
-  <si>
-    <t>consulting services for energy and utilities monitoring &amp; analysis</t>
-  </si>
-  <si>
-    <t>douglas college</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053297044?origin=0</t>
-  </si>
-  <si>
-    <t>consulting services - sports field design for delbrook, handsworth, kilmer, and windsor</t>
-  </si>
-  <si>
-    <t>district of north vancouver</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/mbgov/solicitations/open-bids/Contract-Program-Manager/0000265695?origin=0</t>
-  </si>
-  <si>
-    <t>contract program manager</t>
-  </si>
-  <si>
-    <t>western canada lottery corporation</t>
-  </si>
-  <si>
-    <t>winnipeg, mb, can</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053297007?origin=0</t>
-  </si>
-  <si>
-    <t>consultant: update consolidated zoning bylaw</t>
-  </si>
-  <si>
-    <t>city of maple ridge</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053224428?origin=0</t>
-  </si>
-  <si>
-    <t>bci-rfp-2024-03-01-office architecture and design services</t>
-  </si>
-  <si>
-    <t>bc investment management corporation</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/solicitations/open-bids/PROFESSIONAL-SERVICES-FOR-THE-SUPPORT-AND-ENHANCEMENT-OF-SAP-BYDESIGN-2024-2027/0000265666?origin=0</t>
-  </si>
-  <si>
-    <t>professional services for the support and enhancement of sap bydesign (2024-2027</t>
-  </si>
-  <si>
-    <t>les ponts jacques cartier et champlain inc.</t>
-  </si>
-  <si>
-    <t>montréal, qc, can</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43052942820?origin=0</t>
-  </si>
-  <si>
-    <t>telephone service</t>
-  </si>
-  <si>
-    <t>nova scotia provincial housing agency</t>
-  </si>
-  <si>
-    <t>nova scotia, can</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43052864509?origin=0</t>
-  </si>
-  <si>
-    <t>rfp - aerial wildfire detection services for the department of natural resources and renewables</t>
-  </si>
-  <si>
-    <t>department of natural resources and renewables</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43051949481?origin=0</t>
-  </si>
-  <si>
-    <t>rfp 0696 penetration test and vulnerability assessment</t>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43053963479?origin=0</t>
+  </si>
+  <si>
+    <t>cellular services data within the county</t>
   </si>
   <si>
     <t>alberta public sector</t>
@@ -241,22 +277,34 @@
     <t>alberta, can</t>
   </si>
   <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053963454?origin=0</t>
-  </si>
-  <si>
-    <t>facilities condition assessment &amp; asset retirement obligation</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053963461?origin=0</t>
-  </si>
-  <si>
-    <t>municipal restructuring study stream clearwater county and village of caroline amalgamation negotiation report</t>
-  </si>
-  <si>
-    <t>https://www.merx.com/public/supplier/interception/view-notice/43053963463?origin=0</t>
-  </si>
-  <si>
-    <t>wayfinding strategy and signage supply</t>
+    <t>2024/03/29</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43053963482?origin=0</t>
+  </si>
+  <si>
+    <t>oracle support services</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43053963484?origin=0</t>
+  </si>
+  <si>
+    <t>big marlborough park master plan</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43053963485?origin=0</t>
+  </si>
+  <si>
+    <t>compensation advisor for atrf board</t>
+  </si>
+  <si>
+    <t>https://www.merx.com/public/supplier/interception/view-notice/43053963500?origin=0</t>
+  </si>
+  <si>
+    <t>request for proposal - audit services</t>
+  </si>
+  <si>
+    <t>2024/04/01</t>
   </si>
 </sst>
 </file>
@@ -651,16 +699,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="120" customWidth="1"/>
-    <col min="2" max="2" width="70" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="2" max="3" width="70" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="5" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,355 +721,511 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
